--- a/excel/mangwon_processed.xlsx
+++ b/excel/mangwon_processed.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1868,7 +1868,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1978,7 +1978,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2528,7 +2528,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3078,7 +3078,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3518,7 +3518,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3738,7 +3738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3848,7 +3848,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3958,7 +3958,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4398,7 +4398,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4508,7 +4508,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5058,7 +5058,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5168,7 +5168,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5388,7 +5388,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5498,7 +5498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5608,7 +5608,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5718,7 +5718,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5828,7 +5828,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5938,7 +5938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6048,7 +6048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6158,7 +6158,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6268,7 +6268,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6488,7 +6488,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6818,7 +6818,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6928,7 +6928,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7038,7 +7038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7148,7 +7148,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7258,7 +7258,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7368,7 +7368,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7478,7 +7478,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7588,7 +7588,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7698,7 +7698,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7808,7 +7808,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7918,7 +7918,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8028,7 +8028,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8138,7 +8138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8248,7 +8248,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -8468,7 +8468,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -8578,7 +8578,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -8688,7 +8688,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -8798,7 +8798,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -8908,7 +8908,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9018,7 +9018,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -9128,7 +9128,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -9238,7 +9238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -9348,7 +9348,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -9458,7 +9458,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -9568,7 +9568,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -9678,7 +9678,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -9788,7 +9788,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -9898,7 +9898,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -10008,7 +10008,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -10118,7 +10118,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -10228,7 +10228,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -10338,7 +10338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -10448,7 +10448,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -10558,7 +10558,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -10668,7 +10668,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -10778,7 +10778,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -10888,7 +10888,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -10998,7 +10998,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -11108,7 +11108,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -11218,7 +11218,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -11328,7 +11328,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -11438,7 +11438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -11548,7 +11548,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -11658,7 +11658,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -11768,7 +11768,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -11878,7 +11878,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -12098,7 +12098,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -12208,7 +12208,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -12318,7 +12318,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -12428,7 +12428,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -12538,7 +12538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -12648,7 +12648,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -12758,7 +12758,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -12868,7 +12868,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -12978,7 +12978,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -13088,7 +13088,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -13198,7 +13198,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -13308,7 +13308,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -13418,7 +13418,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -13528,7 +13528,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -13638,7 +13638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -13748,7 +13748,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -13858,7 +13858,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -13968,7 +13968,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -14078,7 +14078,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -14188,7 +14188,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -14298,7 +14298,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -14408,7 +14408,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -14518,7 +14518,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -14628,7 +14628,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -14738,7 +14738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -14848,7 +14848,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -14958,7 +14958,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -15068,7 +15068,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -15178,7 +15178,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -15288,7 +15288,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -15398,7 +15398,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -15508,7 +15508,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -15618,7 +15618,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -15728,7 +15728,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -15948,7 +15948,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -16058,7 +16058,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -16168,7 +16168,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -16278,7 +16278,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -16388,7 +16388,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -16498,7 +16498,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -16608,7 +16608,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -16718,7 +16718,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -16828,7 +16828,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -16938,7 +16938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -17048,7 +17048,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -17158,7 +17158,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -17268,7 +17268,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -17378,7 +17378,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -17488,7 +17488,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -17598,7 +17598,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -17708,7 +17708,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -17818,7 +17818,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -17928,7 +17928,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -18038,7 +18038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -18148,7 +18148,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -18258,7 +18258,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -18368,7 +18368,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -18478,7 +18478,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -18588,7 +18588,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -18698,7 +18698,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -18808,7 +18808,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -18918,7 +18918,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -19028,7 +19028,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -19138,7 +19138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -19248,7 +19248,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -19358,7 +19358,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -19468,7 +19468,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -19578,7 +19578,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -19688,7 +19688,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -19798,7 +19798,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -19908,7 +19908,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -20018,7 +20018,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -20128,7 +20128,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -20238,7 +20238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -20348,7 +20348,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -20458,7 +20458,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -20568,7 +20568,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -20678,7 +20678,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -20788,7 +20788,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -20898,7 +20898,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -21008,7 +21008,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -21118,7 +21118,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -21228,7 +21228,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -21338,7 +21338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -21448,7 +21448,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -21558,7 +21558,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -21668,7 +21668,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -21778,7 +21778,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -21888,7 +21888,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -21998,7 +21998,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -22108,7 +22108,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -22218,7 +22218,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -22328,7 +22328,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -22438,7 +22438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -22548,7 +22548,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -22658,7 +22658,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -22768,7 +22768,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -22878,7 +22878,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -22988,7 +22988,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -23098,7 +23098,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -23208,7 +23208,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -23318,7 +23318,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -23428,7 +23428,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -23538,7 +23538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -23648,7 +23648,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -23758,7 +23758,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -23868,7 +23868,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -23978,7 +23978,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -24088,7 +24088,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -24198,7 +24198,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -24308,7 +24308,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -24418,7 +24418,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -24528,7 +24528,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -24748,7 +24748,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -24858,7 +24858,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -24968,7 +24968,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -25078,7 +25078,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -25298,7 +25298,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -25408,7 +25408,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -25518,7 +25518,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -25628,7 +25628,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -25738,7 +25738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -25848,7 +25848,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -25958,7 +25958,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -26068,7 +26068,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -26178,7 +26178,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -26288,7 +26288,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -26398,7 +26398,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -26508,7 +26508,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -26618,7 +26618,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -26728,7 +26728,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -26838,7 +26838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -26948,7 +26948,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -27058,7 +27058,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -27168,7 +27168,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -27278,7 +27278,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -27388,7 +27388,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -27498,7 +27498,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -27608,7 +27608,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -27718,7 +27718,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -27828,7 +27828,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -27938,7 +27938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -28048,7 +28048,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -28158,7 +28158,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -28268,7 +28268,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -28378,7 +28378,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -28488,7 +28488,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -28598,7 +28598,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -28708,7 +28708,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -28818,7 +28818,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:42</t>
+          <t>2023-08-07 10:46:25</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
